--- a/luke/doubling_up_for_a_trait_v1.xlsx
+++ b/luke/doubling_up_for_a_trait_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/PhyBEARS.jl/luke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C31BD63-CFD4-2043-A715-F763EC4FA1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C010FE-9DFE-D649-BACA-68F50B52A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{7DA66DE9-50BD-184B-8C4E-371CCBB3DC6D}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/luke/doubling_up_for_a_trait_v1.xlsx
+++ b/luke/doubling_up_for_a_trait_v1.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/PhyBEARS.jl/luke/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/PhyBEARS.jl/luke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C010FE-9DFE-D649-BACA-68F50B52A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B52C10-C4C3-064A-B4DA-CD49A4806C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{7DA66DE9-50BD-184B-8C4E-371CCBB3DC6D}"/>
+    <workbookView xWindow="1660" yWindow="740" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7DA66DE9-50BD-184B-8C4E-371CCBB3DC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs.setup" sheetId="1" r:id="rId1"/>
+    <sheet name="inputs.res" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>tree_height</t>
   </si>
@@ -405,6 +395,213 @@
   </si>
   <si>
     <t>D = dioecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputs.res </t>
+  </si>
+  <si>
+    <t>regime</t>
+  </si>
+  <si>
+    <t>node_state</t>
+  </si>
+  <si>
+    <t>node_method</t>
+  </si>
+  <si>
+    <t>node_Lparent_state</t>
+  </si>
+  <si>
+    <t>node_Rparent_state</t>
+  </si>
+  <si>
+    <t>root_nodeIndex</t>
+  </si>
+  <si>
+    <t>numNodes</t>
+  </si>
+  <si>
+    <t>uppass_edgematrix</t>
+  </si>
+  <si>
+    <t>thread_for_each_nodeOp</t>
+  </si>
+  <si>
+    <t>thread_for_each_branchOp</t>
+  </si>
+  <si>
+    <t>calc_spawn_start</t>
+  </si>
+  <si>
+    <t>calc_start_time</t>
+  </si>
+  <si>
+    <t>calc_end_time</t>
+  </si>
+  <si>
+    <t>calc_duration</t>
+  </si>
+  <si>
+    <t>calctime_iterations</t>
+  </si>
+  <si>
+    <t>sampling_f</t>
+  </si>
+  <si>
+    <t>tipsamp_f</t>
+  </si>
+  <si>
+    <t>sumLikes_at_node_at_branchTop</t>
+  </si>
+  <si>
+    <t>lnL_at_node_at_branchTop</t>
+  </si>
+  <si>
+    <t>lq_at_branchBot</t>
+  </si>
+  <si>
+    <t>like_at_branchBot</t>
+  </si>
+  <si>
+    <t>Es_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t>Es_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t>fakeX0s_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t>likes_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t>normlikes_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t>likes_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t>normlikes_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t>uppass_probs_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t>anc_estimates_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t>uppass_probs_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t>anc_estimates_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t>fixNodesMult_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t>fixNodesMult_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.regime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.node_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.node_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.node_Lparent_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.node_Rparent_state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.root_nodeIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.numNodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.uppass_edgematrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.thread_for_each_nodeOp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.thread_for_each_branchOp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.calc_spawn_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.calc_start_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.calc_end_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.calc_duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.calctime_iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.sampling_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.tipsamp_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.sumLikes_at_node_at_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.lnL_at_node_at_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.lq_at_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.like_at_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.Es_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.Es_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.fakeX0s_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.likes_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.normlikes_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.likes_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.normlikes_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.uppass_probs_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.anc_estimates_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.uppass_probs_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.anc_estimates_at_each_nodeIndex_branchTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.fixNodesMult_at_each_nodeIndex_branchBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = res.fixNodesMult_at_each_nodeIndex_branchTop</t>
   </si>
 </sst>
 </file>
@@ -758,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B34E381-E79B-3547-A82C-10DA190FFE0C}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1504,4 +1701,437 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA85D27F-6DE7-A04C-BD9F-7107EA0E4C05}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="70.83203125" customWidth="1"/>
+    <col min="5" max="5" width="85.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="str">
+        <f>C3&amp;D3</f>
+        <v>regime = res.regime</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E36" si="0">C4&amp;D4</f>
+        <v>node_state = res.node_state</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>node_method = res.node_method</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>node_Lparent_state = res.node_Lparent_state</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>node_Rparent_state = res.node_Rparent_state</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>root_nodeIndex = res.root_nodeIndex</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>numNodes = res.numNodes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>uppass_edgematrix = res.uppass_edgematrix</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>thread_for_each_nodeOp = res.thread_for_each_nodeOp</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>thread_for_each_branchOp = res.thread_for_each_branchOp</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>calc_spawn_start = res.calc_spawn_start</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>calc_start_time = res.calc_start_time</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>calc_end_time = res.calc_end_time</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>calc_duration = res.calc_duration</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>calctime_iterations = res.calctime_iterations</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>sampling_f = res.sampling_f</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>tipsamp_f = res.tipsamp_f</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>sumLikes_at_node_at_branchTop = res.sumLikes_at_node_at_branchTop</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>lnL_at_node_at_branchTop = res.lnL_at_node_at_branchTop</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>lq_at_branchBot = res.lq_at_branchBot</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>like_at_branchBot = res.like_at_branchBot</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Es_at_each_nodeIndex_branchTop = res.Es_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Es_at_each_nodeIndex_branchBot = res.Es_at_each_nodeIndex_branchBot</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>fakeX0s_at_each_nodeIndex_branchTop = res.fakeX0s_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>likes_at_each_nodeIndex_branchTop = res.likes_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>normlikes_at_each_nodeIndex_branchTop = res.normlikes_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>likes_at_each_nodeIndex_branchBot = res.likes_at_each_nodeIndex_branchBot</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>normlikes_at_each_nodeIndex_branchBot = res.normlikes_at_each_nodeIndex_branchBot</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>uppass_probs_at_each_nodeIndex_branchBot = res.uppass_probs_at_each_nodeIndex_branchBot</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>anc_estimates_at_each_nodeIndex_branchBot = res.anc_estimates_at_each_nodeIndex_branchBot</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>uppass_probs_at_each_nodeIndex_branchTop = res.uppass_probs_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>anc_estimates_at_each_nodeIndex_branchTop = res.anc_estimates_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>fixNodesMult_at_each_nodeIndex_branchBot = res.fixNodesMult_at_each_nodeIndex_branchBot</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>fixNodesMult_at_each_nodeIndex_branchTop = res.fixNodesMult_at_each_nodeIndex_branchTop</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>